--- a/PCES相关文档/PECS程序需求.xlsx
+++ b/PCES相关文档/PECS程序需求.xlsx
@@ -126,17 +126,6 @@
 </t>
   </si>
   <si>
-    <t>进入界面后1秒，触发小华抢的动画。
-小华动画播放结束，用闪光点提醒操作者点击辅导老师的手。
-点击后，触发辅导教师点小华的手的动画。
-播放结束，触发小华拿卡并给卡的动画。
-播放结束，提醒操作者点击教师的手，点击后触发接图卡的动作。
-播放结束，提醒操作者点击话筒，点击后话筒旁边显示“你要吃XXX呀”
-显示2秒，结束后，提醒操作者点击教师的手，点击后触发教师给小华的动画。
-播放结束，触发小华接过XXX。
-播放结束，出现下一关和重做的按钮。</t>
-  </si>
-  <si>
     <t>第三关
 独立完成</t>
   </si>
@@ -449,16 +438,6 @@
   <si>
     <t>第一关
 辅助发表意见</t>
-  </si>
-  <si>
-    <t xml:space="preserve">桌上放着中性刺激物（系统判定）和小华的沟通本，旁边句带上有“我看见”字卡。
-  老师拿起中性刺激物问小华，你看见什么，
-并用右指指向“我看见”的句带。（腾空指一次）
-  辅导老师抓住小华的手翻一次沟通本，然后松开，小华的手拿到图卡，
-  小华独自把图卡贴到句带上“我看见”的右边。
-  老师回应，“是的你看见了XXX，你表现的很好”
-  老师递给小华奖励强化物。
-  </t>
   </si>
   <si>
     <t>进入界面1秒后，教师拿起中性刺激物，提示操作者点击话筒，显示“你看见什么？”
@@ -807,6 +786,29 @@
   </si>
   <si>
     <t>单选框提示正确对号，错误打叉，单一选择</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入界面后1秒，触发小华抢的动画。
+小华动画播放结束，用闪光点提醒操作者点击辅导老师的手。
+点击后，触发辅导教师点小华的手的动画。
+播放结束，触发小华拿卡并给卡的动画。
+播放结束，提醒操作者点击教师的手，点击后触发接图卡的动作。
+播放结束，提醒操作者点击话筒，点击后话筒旁边显示“你要吃XXX呀”
+显示2秒，结束后，提醒操作者点击教师的手，点击后触发教师给小华的动画。
+播放结束，触发小华接过XXX。
+播放结束，出现下一关和重做的按钮。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">桌上放着中性刺激物（系统判定）和小华的沟通本，旁边句带上有“我看见”字卡。
+  老师拿起中性刺激物问小华，你看见什么，
+并用右指指向“我看见”的句带。（腾空指一次）
+  辅导老师抓住小华的手翻一次沟通本，然后松开，小华的手拿到图卡，
+  小华独自把图卡贴到句带上“我看见”的右边。
+  老师回应，“是的你看见了XXX，你表现的很好”
+  老师递给小华奖励强化物。
+  </t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1190,6 +1192,12 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1228,12 +1236,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2294,8 +2296,8 @@
   </sheetPr>
   <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2312,14 +2314,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
       <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2360,7 +2362,7 @@
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" ht="408" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="22"/>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="59" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="19" t="s">
@@ -2373,13 +2375,13 @@
         <v>12</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="174" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="25"/>
-      <c r="B5" s="58"/>
+      <c r="B5" s="60"/>
       <c r="C5" s="19" t="s">
         <v>13</v>
       </c>
@@ -2390,24 +2392,24 @@
         <v>14</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="26"/>
-      <c r="B6" s="58"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="E6" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="F6" s="23" t="s">
         <v>18</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>19</v>
       </c>
       <c r="G6" s="24"/>
     </row>
@@ -2422,54 +2424,54 @@
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="192.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="31"/>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="32" t="s">
         <v>20</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>21</v>
       </c>
       <c r="D8" s="32" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="33" t="s">
         <v>22</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>23</v>
       </c>
       <c r="G8" s="34"/>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" ht="183" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="31"/>
-      <c r="B9" s="59"/>
+      <c r="B9" s="61"/>
       <c r="C9" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="33" t="s">
+      <c r="F9" s="33" t="s">
         <v>25</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>26</v>
       </c>
       <c r="G9" s="34"/>
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1" ht="159" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="31"/>
-      <c r="B10" s="59"/>
+      <c r="B10" s="61"/>
       <c r="C10" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="33" t="s">
+      <c r="F10" s="33" t="s">
         <v>28</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>29</v>
       </c>
       <c r="G10" s="34"/>
     </row>
@@ -2484,52 +2486,52 @@
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" ht="219.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="35"/>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="D12" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="37" t="s">
+      <c r="F12" s="37" t="s">
         <v>32</v>
-      </c>
-      <c r="F12" s="37" t="s">
-        <v>33</v>
       </c>
       <c r="G12" s="38"/>
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1" ht="231" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="35"/>
-      <c r="B13" s="61"/>
+      <c r="B13" s="63"/>
       <c r="C13" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="37" t="s">
+      <c r="F13" s="37" t="s">
         <v>35</v>
-      </c>
-      <c r="F13" s="37" t="s">
-        <v>36</v>
       </c>
       <c r="G13" s="38"/>
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1" ht="231" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="35"/>
-      <c r="B14" s="62"/>
+      <c r="B14" s="64"/>
       <c r="C14" s="36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="36"/>
       <c r="E14" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="37" t="s">
         <v>38</v>
-      </c>
-      <c r="F14" s="37" t="s">
-        <v>39</v>
       </c>
       <c r="G14" s="38"/>
     </row>
@@ -2544,54 +2546,54 @@
     </row>
     <row r="16" spans="1:7" s="5" customFormat="1" ht="164.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="39"/>
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="40" t="s">
         <v>40</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>41</v>
       </c>
       <c r="D16" s="40" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="41" t="s">
         <v>42</v>
-      </c>
-      <c r="F16" s="41" t="s">
-        <v>43</v>
       </c>
       <c r="G16" s="42"/>
     </row>
     <row r="17" spans="1:7" s="5" customFormat="1" ht="132.94999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="39"/>
-      <c r="B17" s="63"/>
+      <c r="B17" s="65"/>
       <c r="C17" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="41" t="s">
+      <c r="F17" s="41" t="s">
         <v>45</v>
-      </c>
-      <c r="F17" s="41" t="s">
-        <v>46</v>
       </c>
       <c r="G17" s="42"/>
     </row>
     <row r="18" spans="1:7" s="5" customFormat="1" ht="131.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="39"/>
-      <c r="B18" s="63"/>
+      <c r="B18" s="65"/>
       <c r="C18" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="41" t="s">
+      <c r="F18" s="41" t="s">
         <v>48</v>
-      </c>
-      <c r="F18" s="41" t="s">
-        <v>49</v>
       </c>
       <c r="G18" s="42"/>
     </row>
@@ -2605,55 +2607,55 @@
       <c r="G19" s="30"/>
     </row>
     <row r="20" spans="1:7" s="6" customFormat="1" ht="198" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="56"/>
-      <c r="B20" s="64" t="s">
+      <c r="A20" s="58"/>
+      <c r="B20" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="D20" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="44" t="s">
         <v>51</v>
-      </c>
-      <c r="D20" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="44" t="s">
-        <v>52</v>
       </c>
       <c r="G20" s="45"/>
     </row>
     <row r="21" spans="1:7" s="6" customFormat="1" ht="195.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="56"/>
-      <c r="B21" s="64"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="66"/>
       <c r="C21" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="44" t="s">
+      <c r="F21" s="44" t="s">
         <v>54</v>
-      </c>
-      <c r="F21" s="44" t="s">
-        <v>55</v>
       </c>
       <c r="G21" s="45"/>
     </row>
     <row r="22" spans="1:7" s="6" customFormat="1" ht="150.94999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="56"/>
-      <c r="B22" s="64"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="66"/>
       <c r="C22" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="43" t="s">
-        <v>57</v>
-      </c>
       <c r="E22" s="44" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F22" s="44" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G22" s="45"/>
     </row>
@@ -2668,82 +2670,82 @@
     </row>
     <row r="24" spans="1:7" s="7" customFormat="1" ht="198.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="46"/>
-      <c r="B24" s="52" t="s">
+      <c r="B24" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="47" t="s">
         <v>58</v>
-      </c>
-      <c r="C24" s="47" t="s">
-        <v>59</v>
       </c>
       <c r="D24" s="47" t="s">
         <v>6</v>
       </c>
       <c r="E24" s="48" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="F24" s="48" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G24" s="49"/>
     </row>
     <row r="25" spans="1:7" s="7" customFormat="1" ht="174" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="46"/>
-      <c r="B25" s="52"/>
+      <c r="B25" s="54"/>
       <c r="C25" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="48" t="s">
         <v>62</v>
-      </c>
-      <c r="D25" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="F25" s="48" t="s">
-        <v>64</v>
       </c>
       <c r="G25" s="49"/>
     </row>
     <row r="26" spans="1:7" s="7" customFormat="1" ht="291" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="46"/>
-      <c r="B26" s="52"/>
+      <c r="B26" s="54"/>
       <c r="C26" s="47" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D26" s="47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E26" s="48" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F26" s="48" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G26" s="49"/>
     </row>
     <row r="27" spans="1:7" s="7" customFormat="1" ht="240.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="66" t="s">
-        <v>76</v>
+      <c r="A27" s="53" t="s">
+        <v>74</v>
       </c>
       <c r="B27" s="50"/>
       <c r="C27" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="47" t="s">
+      <c r="F27" s="51" t="s">
         <v>68</v>
-      </c>
-      <c r="E27" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="F27" s="51" t="s">
-        <v>70</v>
       </c>
       <c r="G27" s="49"/>
     </row>
     <row r="28" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="65" t="s">
-        <v>77</v>
+      <c r="A28" s="52" t="s">
+        <v>75</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
